--- a/Excel/trip_9.xlsx
+++ b/Excel/trip_9.xlsx
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="5" t="str">
-        <v>asd</v>
+        <v/>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -2693,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="9" t="str">
-        <v>kaj</v>
+        <v>email@email.com</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -3670,7 +3670,7 @@
       <c r="L40" s="115"/>
       <c r="M40" s="116">
         <f aca="false">IF(M4="Y",SUM(M36:M39,I36:I40,'Page 2'!M40,'Page 3'!M40),SUM(M36:M39,I36:I40))</f>
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="41" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
